--- a/Book1.xls.xlsx
+++ b/Book1.xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/693a3b8f713994a6/Desktop/ArmRobot_Gesture_Control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{AFAD6EE5-3072-446F-97D3-4A77E7B781C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B8A377-98A8-46B0-9CEE-A82D36133FF6}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{AFAD6EE5-3072-446F-97D3-4A77E7B781C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B19012D1-42CF-4EF2-ACF6-38828167FFAF}"/>
   <bookViews>
-    <workbookView xWindow="46350" yWindow="2985" windowWidth="14400" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39870" yWindow="1470" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -427,183 +427,15 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>110</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>175</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>110</v>
-      </c>
-      <c r="B4">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>130</v>
-      </c>
-      <c r="D4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>75</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>131</v>
-      </c>
-      <c r="D5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>171</v>
-      </c>
-      <c r="D6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>41</v>
-      </c>
-      <c r="C7">
-        <v>101</v>
-      </c>
-      <c r="D7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>75</v>
-      </c>
-      <c r="B8">
-        <v>90</v>
-      </c>
-      <c r="C8">
-        <v>90</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>75</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>165</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>175</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>130</v>
-      </c>
-      <c r="D11">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>45</v>
-      </c>
-      <c r="C12">
-        <v>131</v>
-      </c>
-      <c r="D12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>110</v>
-      </c>
-      <c r="B13">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>171</v>
-      </c>
-      <c r="D13">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>110</v>
-      </c>
-      <c r="B14">
-        <v>51</v>
-      </c>
-      <c r="C14">
-        <v>121</v>
-      </c>
-      <c r="D14">
         <v>60</v>
       </c>
     </row>
